--- a/data/Subset1_WithDialogActs/Math CZ2 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math CZ2 transcript.xlsx_with_dialog_acts.xlsx
@@ -1185,12 +1185,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1567,12 +1567,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1949,12 +1949,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2159,12 +2159,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2621,12 +2621,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3549,12 +3549,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3717,12 +3717,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3759,12 +3759,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4011,12 +4011,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4053,12 +4053,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4263,12 +4263,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4305,12 +4305,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4481,12 +4481,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5241,12 +5241,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5661,12 +5661,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5917,12 +5917,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6761,12 +6761,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6887,12 +6887,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7185,12 +7185,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7441,12 +7441,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7487,12 +7487,12 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7529,12 +7529,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7571,12 +7571,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7785,12 +7785,12 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7827,12 +7827,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8217,12 +8217,12 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8301,12 +8301,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8343,12 +8343,12 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8431,12 +8431,12 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8473,12 +8473,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8683,12 +8683,12 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9065,12 +9065,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9443,12 +9443,12 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9573,12 +9573,12 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9615,12 +9615,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10085,12 +10085,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10341,12 +10341,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10593,12 +10593,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11227,12 +11227,12 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12281,12 +12281,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12785,12 +12785,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13163,12 +13163,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13661,12 +13661,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13703,12 +13703,12 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14695,12 +14695,12 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15543,12 +15543,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15963,12 +15963,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16089,12 +16089,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16593,12 +16593,12 @@
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16719,12 +16719,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18057,12 +18057,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18939,12 +18939,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19023,12 +19023,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19321,12 +19321,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
